--- a/Unit test/TestPlan.xlsx
+++ b/Unit test/TestPlan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\_Study^^\ITSS\TKXDPM.VP.20231-20205201.NguyenDinhDuong\Unit test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ABB9951-A9EA-4699-92CC-9A4936AD8951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3BAE8F-033B-493B-B2AE-FF12C6D9AF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="6" activeTab="7" xr2:uid="{BA49DA37-6C72-4F0C-8F29-A460207C1BDB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="12360" firstSheet="6" activeTab="7" xr2:uid="{BA49DA37-6C72-4F0C-8F29-A460207C1BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="148">
   <si>
     <t>1. Introduction</t>
   </si>
@@ -280,9 +280,6 @@
     <t>Test Suite ID</t>
   </si>
   <si>
-    <t>5.2. Test Case Specification for "Test Case Title"</t>
-  </si>
-  <si>
     <t>5.1. Test Case Specification for "Test Case Title"</t>
   </si>
   <si>
@@ -448,6 +445,105 @@
   </si>
   <si>
     <t>Check entity class Media</t>
+  </si>
+  <si>
+    <t>5.2. Test Case Specification for "Validate Phone Number"</t>
+  </si>
+  <si>
+    <t>CheckPhone</t>
+  </si>
+  <si>
+    <t>25/11/2023</t>
+  </si>
+  <si>
+    <t>Only number (0-9)</t>
+  </si>
+  <si>
+    <t>Must have 10 character length</t>
+  </si>
+  <si>
+    <t>Start with 0</t>
+  </si>
+  <si>
+    <t>Phone number</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>0912345678</t>
+  </si>
+  <si>
+    <t>a_</t>
+  </si>
+  <si>
+    <t>Enter phone number 1</t>
+  </si>
+  <si>
+    <t>Enter phone number 2</t>
+  </si>
+  <si>
+    <t>Enter phone number 3</t>
+  </si>
+  <si>
+    <t>5.3. Test Case Specification for "Validate Name"</t>
+  </si>
+  <si>
+    <t>CheckName</t>
+  </si>
+  <si>
+    <t>Only letter ( a-z and A-Z) and space character</t>
+  </si>
+  <si>
+    <t>Must not null</t>
+  </si>
+  <si>
+    <t>Start with letter</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>Duong</t>
+  </si>
+  <si>
+    <t>0_Duong</t>
+  </si>
+  <si>
+    <t>Enter name 1</t>
+  </si>
+  <si>
+    <t>Enter name 2</t>
+  </si>
+  <si>
+    <t>Enter name 3</t>
+  </si>
+  <si>
+    <t>5.4. Test Case Specification for "Validate Address"</t>
+  </si>
+  <si>
+    <t>CheckAddress</t>
+  </si>
+  <si>
+    <t>so 1 Dai Co Viet</t>
+  </si>
+  <si>
+    <t>hanoi</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Enter address 1</t>
+  </si>
+  <si>
+    <t>Enter address 2</t>
+  </si>
+  <si>
+    <t>Enter address 3</t>
   </si>
 </sst>
 </file>
@@ -788,7 +884,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -917,6 +1013,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -926,21 +1037,6 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -950,35 +1046,59 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -993,33 +1113,15 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1032,14 +1134,41 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2070,7 +2199,7 @@
   <sheetData>
     <row r="4" spans="4:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="E4" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="4:5" x14ac:dyDescent="0.3">
@@ -2078,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.3">
@@ -2086,7 +2215,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.3">
@@ -2094,7 +2223,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="4:5" x14ac:dyDescent="0.3">
@@ -2102,7 +2231,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="4:5" x14ac:dyDescent="0.3">
@@ -2110,7 +2239,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2150,7 +2279,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -2458,7 +2587,7 @@
     </row>
     <row r="35" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" s="43"/>
       <c r="C35" s="43"/>
@@ -3399,13 +3528,13 @@
     </row>
     <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="11"/>
     </row>
@@ -3431,7 +3560,7 @@
         <v>28</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3474,7 +3603,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="17">
         <f>COUNTIF(D6:R6,"=x")</f>
@@ -3524,7 +3653,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -3542,7 +3671,7 @@
     </row>
     <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -3552,32 +3681,32 @@
       <c r="B14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="48" t="s">
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="50"/>
+      <c r="G14" s="55"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="54" t="s">
+      <c r="D15" s="49"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="55"/>
+      <c r="G15" s="52"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
@@ -3590,37 +3719,37 @@
     </row>
     <row r="17" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A18" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="57"/>
       <c r="C19" s="58"/>
       <c r="D19" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="F19" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="G19" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="H19" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="35" t="s">
-        <v>77</v>
-      </c>
       <c r="I19" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -3700,7 +3829,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17">
@@ -3718,7 +3847,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="17">
@@ -3736,7 +3865,7 @@
     </row>
     <row r="25" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17">
@@ -3756,7 +3885,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17">
@@ -3774,12 +3903,12 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -3789,32 +3918,32 @@
       <c r="B30" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="48" t="s">
+      <c r="D30" s="54"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="50"/>
+      <c r="G30" s="55"/>
     </row>
     <row r="31" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="51" t="s">
+      <c r="C31" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="52"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="54" t="s">
+      <c r="D31" s="49"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="G31" s="55"/>
+      <c r="G31" s="52"/>
     </row>
     <row r="32" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21"/>
@@ -3846,10 +3975,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF123E7-2EB5-48C5-B5DD-E8CB50F3BF35}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A102" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124:C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3867,45 +3996,45 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="75"/>
+      <c r="B3" s="69"/>
       <c r="C3" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
       <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="75"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="79" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="79"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="70"/>
       <c r="H4" s="28" t="s">
         <v>42</v>
       </c>
@@ -3927,10 +4056,10 @@
       <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="63"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="26" t="s">
         <v>59</v>
       </c>
@@ -3955,21 +4084,21 @@
       <c r="J7" s="27"/>
     </row>
     <row r="8" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="63"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="64"/>
+      <c r="F8" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="63"/>
-      <c r="F8" s="65" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" s="66"/>
+      <c r="G8" s="67"/>
       <c r="H8" s="28" t="s">
         <v>47</v>
       </c>
@@ -3990,35 +4119,35 @@
       <c r="A10" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
     </row>
     <row r="11" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32">
         <v>1</v>
       </c>
-      <c r="B11" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
+      <c r="B11" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
     </row>
     <row r="12" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="32">
         <v>2</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="27"/>
@@ -4036,15 +4165,15 @@
       <c r="A14" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78" t="s">
+      <c r="C14" s="73"/>
+      <c r="D14" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
@@ -4054,15 +4183,15 @@
       <c r="A15" s="32">
         <v>1</v>
       </c>
-      <c r="B15" s="87" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="88"/>
-      <c r="D15" s="87">
+      <c r="B15" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="60"/>
+      <c r="D15" s="59">
         <v>1</v>
       </c>
-      <c r="E15" s="89"/>
-      <c r="F15" s="88"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="60"/>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
@@ -4072,15 +4201,15 @@
       <c r="A16" s="32">
         <v>2</v>
       </c>
-      <c r="B16" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="87" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="89"/>
-      <c r="F16" s="88"/>
+      <c r="B16" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="60"/>
+      <c r="D16" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="62"/>
+      <c r="F16" s="60"/>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
@@ -4090,15 +4219,15 @@
       <c r="A17" s="32">
         <v>3</v>
       </c>
-      <c r="B17" s="87" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="88"/>
-      <c r="D17" s="87">
+      <c r="B17" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="60"/>
+      <c r="D17" s="59">
         <v>50000</v>
       </c>
-      <c r="E17" s="89"/>
-      <c r="F17" s="88"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="60"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
@@ -4108,15 +4237,15 @@
       <c r="A18" s="32">
         <v>4</v>
       </c>
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="88"/>
-      <c r="D18" s="87">
+      <c r="C18" s="60"/>
+      <c r="D18" s="59">
         <v>10</v>
       </c>
-      <c r="E18" s="89"/>
-      <c r="F18" s="88"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
@@ -4126,15 +4255,15 @@
       <c r="A19" s="32">
         <v>5</v>
       </c>
-      <c r="B19" s="87" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="88"/>
-      <c r="D19" s="87" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="89"/>
-      <c r="F19" s="88"/>
+      <c r="B19" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="60"/>
+      <c r="D19" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="62"/>
+      <c r="F19" s="60"/>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
@@ -4144,15 +4273,15 @@
       <c r="A20" s="32">
         <v>6</v>
       </c>
-      <c r="B20" s="87" t="s">
+      <c r="B20" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="88"/>
-      <c r="D20" s="87" t="s">
+      <c r="C20" s="60"/>
+      <c r="D20" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="89"/>
-      <c r="F20" s="88"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="60"/>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
@@ -4162,15 +4291,15 @@
       <c r="A21" s="32">
         <v>7</v>
       </c>
-      <c r="B21" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="88"/>
-      <c r="D21" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="89"/>
-      <c r="F21" s="88"/>
+      <c r="B21" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="60"/>
+      <c r="D21" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="62"/>
+      <c r="F21" s="60"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
@@ -4180,15 +4309,15 @@
       <c r="A22" s="32">
         <v>8</v>
       </c>
-      <c r="B22" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="88"/>
-      <c r="D22" s="87">
+      <c r="B22" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="60"/>
+      <c r="D22" s="59">
         <v>50</v>
       </c>
-      <c r="E22" s="89"/>
-      <c r="F22" s="88"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="60"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
@@ -4198,15 +4327,15 @@
       <c r="A23" s="32">
         <v>9</v>
       </c>
-      <c r="B23" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="87" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="89"/>
-      <c r="F23" s="88"/>
+      <c r="B23" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="61"/>
+      <c r="D23" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="62"/>
+      <c r="F23" s="60"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
@@ -4216,15 +4345,15 @@
       <c r="A24" s="32">
         <v>7</v>
       </c>
-      <c r="B24" s="87" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="88"/>
-      <c r="D24" s="87" t="b">
+      <c r="B24" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="60"/>
+      <c r="D24" s="59" t="b">
         <v>1</v>
       </c>
-      <c r="E24" s="89"/>
-      <c r="F24" s="88"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="60"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
@@ -4234,15 +4363,15 @@
       <c r="A25" s="32">
         <v>8</v>
       </c>
-      <c r="B25" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="88"/>
-      <c r="D25" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
+      <c r="B25" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="60"/>
+      <c r="D25" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
@@ -4252,15 +4381,15 @@
       <c r="A26" s="32">
         <v>9</v>
       </c>
-      <c r="B26" s="76" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
+      <c r="B26" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
@@ -4268,23 +4397,23 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="34"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="68"/>
+      <c r="B28" s="72"/>
       <c r="C28" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
@@ -4298,132 +4427,142 @@
       <c r="C29" s="34"/>
     </row>
     <row r="30" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="69"/>
-      <c r="D30" s="71" t="s">
+      <c r="C30" s="77"/>
+      <c r="D30" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="72"/>
-      <c r="F30" s="83" t="s">
+      <c r="E30" s="80"/>
+      <c r="F30" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="84"/>
-      <c r="H30" s="59" t="s">
+      <c r="G30" s="86"/>
+      <c r="H30" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="69"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
+      <c r="A31" s="77"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
     </row>
     <row r="32" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="32">
         <v>1</v>
       </c>
-      <c r="B32" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="77"/>
-      <c r="D32" s="60" t="b">
+      <c r="B32" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="75"/>
+      <c r="D32" s="74" t="b">
         <v>1</v>
       </c>
-      <c r="E32" s="60"/>
-      <c r="F32" s="81" t="s">
+      <c r="E32" s="74"/>
+      <c r="F32" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="G32" s="82"/>
-      <c r="H32" s="60" t="s">
+      <c r="G32" s="83"/>
+      <c r="H32" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
     </row>
     <row r="33" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="32">
         <v>2</v>
       </c>
-      <c r="B33" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="77"/>
-      <c r="D33" s="60" t="b">
+      <c r="B33" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="75"/>
+      <c r="D33" s="74" t="b">
         <v>1</v>
       </c>
-      <c r="E33" s="60"/>
-      <c r="F33" s="81" t="s">
+      <c r="E33" s="74"/>
+      <c r="F33" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="82"/>
-      <c r="H33" s="60" t="s">
+      <c r="G33" s="83"/>
+      <c r="H33" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
     </row>
     <row r="34" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="32"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="74" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="75"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="74" t="s">
+      <c r="B38" s="69"/>
+      <c r="C38" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="75"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="G38" s="90"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
       <c r="J38" s="27"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="74" t="s">
+      <c r="A39" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="75"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="74" t="s">
+      <c r="B39" s="69"/>
+      <c r="C39" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="75"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" s="70"/>
       <c r="H39" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="I39" s="29"/>
+      <c r="I39" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="J39" s="29"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -4439,10 +4578,10 @@
       <c r="J40" s="27"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="62" t="s">
+      <c r="A41" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="63"/>
+      <c r="B41" s="64"/>
       <c r="C41" s="26"/>
       <c r="D41" s="30"/>
       <c r="E41" s="30"/>
@@ -4465,19 +4604,23 @@
       <c r="J42" s="27"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="64" t="s">
+      <c r="A43" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="63"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="64" t="s">
+      <c r="B43" s="64"/>
+      <c r="C43" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="63"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="G43" s="66"/>
       <c r="H43" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I43" s="27"/>
     </row>
@@ -4494,164 +4637,1197 @@
       <c r="A45" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="67" t="s">
+      <c r="B45" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="32">
+      <c r="C45" s="84"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="84"/>
+    </row>
+    <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="96">
         <v>1</v>
       </c>
-      <c r="B46" s="60"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="33" t="s">
+      <c r="B46" s="97" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="98"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="99"/>
+    </row>
+    <row r="47" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="96">
+        <v>2</v>
+      </c>
+      <c r="B47" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="98"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="99"/>
+    </row>
+    <row r="48" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="96">
+        <v>3</v>
+      </c>
+      <c r="B48" s="97" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="98"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="98"/>
+    </row>
+    <row r="49" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="94"/>
+      <c r="B49" s="95"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="95"/>
+      <c r="F49" s="95"/>
+    </row>
+    <row r="50" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+    </row>
+    <row r="51" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="78" t="s">
+      <c r="B51" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78" t="s">
+      <c r="C51" s="93"/>
+      <c r="D51" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="32">
-        <v>1</v>
-      </c>
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="34"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="68"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
+      <c r="E51" s="92"/>
+      <c r="F51" s="93"/>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
       <c r="J51" s="27"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C52" s="34"/>
-    </row>
-    <row r="53" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="59" t="s">
+    <row r="52" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="32">
+        <v>1</v>
+      </c>
+      <c r="B52" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="83"/>
+      <c r="D52" s="100" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="32">
+        <v>2</v>
+      </c>
+      <c r="B53" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="74"/>
+      <c r="D53" s="100" t="s">
+        <v>123</v>
+      </c>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="32">
+        <v>3</v>
+      </c>
+      <c r="B54" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="74"/>
+      <c r="D54" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="E54" s="74"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="32"/>
+      <c r="B55" s="74"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="72"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C57" s="34"/>
+    </row>
+    <row r="58" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="59" t="s">
+      <c r="B58" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="69"/>
-      <c r="D53" s="71" t="s">
+      <c r="C58" s="77"/>
+      <c r="D58" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="E53" s="72"/>
-      <c r="F53" s="83" t="s">
+      <c r="E58" s="80"/>
+      <c r="F58" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="G53" s="84"/>
-      <c r="H53" s="59" t="s">
+      <c r="G58" s="86"/>
+      <c r="H58" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="I53" s="59"/>
-      <c r="J53" s="59"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="69"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="73"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="86"/>
-      <c r="H54" s="59"/>
-      <c r="I54" s="59"/>
-      <c r="J54" s="59"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="32">
+      <c r="I58" s="76"/>
+      <c r="J58" s="76"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="77"/>
+      <c r="B59" s="78"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="87"/>
+      <c r="G59" s="88"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="76"/>
+      <c r="J59" s="76"/>
+    </row>
+    <row r="60" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="96">
         <v>1</v>
       </c>
-      <c r="B55" s="60"/>
-      <c r="C55" s="77"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="82"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="60"/>
+      <c r="B60" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="99"/>
+      <c r="D60" s="97" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" s="99"/>
+      <c r="F60" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="G60" s="83"/>
+      <c r="H60" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="I60" s="98"/>
+      <c r="J60" s="99"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="96">
+        <v>2</v>
+      </c>
+      <c r="B61" s="97" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="99"/>
+      <c r="D61" s="97" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" s="99"/>
+      <c r="F61" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="G61" s="83"/>
+      <c r="H61" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="I61" s="98"/>
+      <c r="J61" s="99"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="96">
+        <v>3</v>
+      </c>
+      <c r="B62" s="97" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="99"/>
+      <c r="D62" s="97" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" s="99"/>
+      <c r="F62" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="G62" s="83"/>
+      <c r="H62" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="I62" s="98"/>
+      <c r="J62" s="99"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" s="69"/>
+      <c r="C67" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="E67" s="69"/>
+      <c r="F67" s="90" t="s">
+        <v>129</v>
+      </c>
+      <c r="G67" s="90"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="69"/>
+      <c r="C68" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D68" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="E68" s="69"/>
+      <c r="F68" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="G68" s="70"/>
+      <c r="H68" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I68" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J68" s="29"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="27"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" s="64"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="30"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B72" s="64"/>
+      <c r="C72" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="E72" s="64"/>
+      <c r="F72" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="G72" s="66"/>
+      <c r="H72" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="I72" s="27"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="30"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="20"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B74" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74" s="84"/>
+      <c r="D74" s="84"/>
+      <c r="E74" s="84"/>
+      <c r="F74" s="84"/>
+    </row>
+    <row r="75" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="96">
+        <v>1</v>
+      </c>
+      <c r="B75" s="97" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="98"/>
+      <c r="D75" s="98"/>
+      <c r="E75" s="98"/>
+      <c r="F75" s="99"/>
+    </row>
+    <row r="76" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="96">
+        <v>2</v>
+      </c>
+      <c r="B76" s="97" t="s">
+        <v>131</v>
+      </c>
+      <c r="C76" s="98"/>
+      <c r="D76" s="98"/>
+      <c r="E76" s="98"/>
+      <c r="F76" s="99"/>
+    </row>
+    <row r="77" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="96">
+        <v>3</v>
+      </c>
+      <c r="B77" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="C77" s="98"/>
+      <c r="D77" s="98"/>
+      <c r="E77" s="98"/>
+      <c r="F77" s="99"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="94"/>
+      <c r="B78" s="95"/>
+      <c r="C78" s="95"/>
+      <c r="D78" s="95"/>
+      <c r="E78" s="95"/>
+      <c r="F78" s="95"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="27"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="27"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B80" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80" s="93"/>
+      <c r="D80" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="E80" s="92"/>
+      <c r="F80" s="93"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="27"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="32">
+        <v>1</v>
+      </c>
+      <c r="B81" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="C81" s="83"/>
+      <c r="D81" s="100" t="s">
+        <v>134</v>
+      </c>
+      <c r="E81" s="74"/>
+      <c r="F81" s="74"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="27"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="32">
+        <v>2</v>
+      </c>
+      <c r="B82" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="C82" s="74"/>
+      <c r="D82" s="100" t="s">
+        <v>135</v>
+      </c>
+      <c r="E82" s="74"/>
+      <c r="F82" s="74"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="27"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="32">
+        <v>3</v>
+      </c>
+      <c r="B83" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="C83" s="74"/>
+      <c r="D83" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="E83" s="74"/>
+      <c r="F83" s="74"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="27"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="32"/>
+      <c r="B84" s="74"/>
+      <c r="C84" s="74"/>
+      <c r="D84" s="74"/>
+      <c r="E84" s="74"/>
+      <c r="F84" s="74"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="26"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" s="72"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="27"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C86" s="34"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="B87" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="C87" s="77"/>
+      <c r="D87" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="E87" s="80"/>
+      <c r="F87" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="G87" s="86"/>
+      <c r="H87" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="I87" s="76"/>
+      <c r="J87" s="76"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" s="77"/>
+      <c r="B88" s="78"/>
+      <c r="C88" s="78"/>
+      <c r="D88" s="81"/>
+      <c r="E88" s="81"/>
+      <c r="F88" s="87"/>
+      <c r="G88" s="88"/>
+      <c r="H88" s="76"/>
+      <c r="I88" s="76"/>
+      <c r="J88" s="76"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" s="96">
+        <v>1</v>
+      </c>
+      <c r="B89" s="97" t="s">
+        <v>137</v>
+      </c>
+      <c r="C89" s="99"/>
+      <c r="D89" s="97" t="b">
+        <v>0</v>
+      </c>
+      <c r="E89" s="99"/>
+      <c r="F89" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="G89" s="83"/>
+      <c r="H89" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="I89" s="98"/>
+      <c r="J89" s="99"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" s="96">
+        <v>2</v>
+      </c>
+      <c r="B90" s="97" t="s">
+        <v>138</v>
+      </c>
+      <c r="C90" s="99"/>
+      <c r="D90" s="97" t="b">
+        <v>1</v>
+      </c>
+      <c r="E90" s="99"/>
+      <c r="F90" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="G90" s="83"/>
+      <c r="H90" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="I90" s="98"/>
+      <c r="J90" s="99"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" s="96">
+        <v>3</v>
+      </c>
+      <c r="B91" s="97" t="s">
+        <v>139</v>
+      </c>
+      <c r="C91" s="99"/>
+      <c r="D91" s="97" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91" s="99"/>
+      <c r="F91" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="G91" s="83"/>
+      <c r="H91" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="I91" s="98"/>
+      <c r="J91" s="99"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="B100" s="69"/>
+      <c r="C100" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D100" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="E100" s="69"/>
+      <c r="F100" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="G100" s="90"/>
+      <c r="H100" s="27"/>
+      <c r="I100" s="27"/>
+      <c r="J100" s="27"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="B101" s="69"/>
+      <c r="C101" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D101" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="E101" s="69"/>
+      <c r="F101" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="G101" s="70"/>
+      <c r="H101" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I101" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J101" s="29"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" s="27"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="27"/>
+      <c r="I102" s="27"/>
+      <c r="J102" s="27"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B103" s="64"/>
+      <c r="C103" s="26"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="30"/>
+      <c r="G103" s="27"/>
+      <c r="H103" s="27"/>
+      <c r="I103" s="27"/>
+      <c r="J103" s="27"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" s="30"/>
+      <c r="B104" s="30"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="30"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="27"/>
+      <c r="I104" s="27"/>
+      <c r="J104" s="27"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B105" s="64"/>
+      <c r="C105" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D105" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="E105" s="64"/>
+      <c r="F105" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="G105" s="66"/>
+      <c r="H105" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="I105" s="27"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" s="30"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="20"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="27"/>
+      <c r="I106" s="27"/>
+      <c r="J106" s="27"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B107" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="C107" s="84"/>
+      <c r="D107" s="84"/>
+      <c r="E107" s="84"/>
+      <c r="F107" s="84"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" s="96">
+        <v>1</v>
+      </c>
+      <c r="B108" s="97" t="s">
+        <v>130</v>
+      </c>
+      <c r="C108" s="98"/>
+      <c r="D108" s="98"/>
+      <c r="E108" s="98"/>
+      <c r="F108" s="99"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" s="96">
+        <v>2</v>
+      </c>
+      <c r="B109" s="97" t="s">
+        <v>131</v>
+      </c>
+      <c r="C109" s="98"/>
+      <c r="D109" s="98"/>
+      <c r="E109" s="98"/>
+      <c r="F109" s="99"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" s="96">
+        <v>3</v>
+      </c>
+      <c r="B110" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="C110" s="98"/>
+      <c r="D110" s="98"/>
+      <c r="E110" s="98"/>
+      <c r="F110" s="99"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" s="94"/>
+      <c r="B111" s="95"/>
+      <c r="C111" s="95"/>
+      <c r="D111" s="95"/>
+      <c r="E111" s="95"/>
+      <c r="F111" s="95"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" s="27"/>
+      <c r="B112" s="27"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="27"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A113" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B113" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="C113" s="93"/>
+      <c r="D113" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="E113" s="92"/>
+      <c r="F113" s="93"/>
+      <c r="G113" s="27"/>
+      <c r="H113" s="27"/>
+      <c r="I113" s="27"/>
+      <c r="J113" s="27"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114" s="32">
+        <v>1</v>
+      </c>
+      <c r="B114" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="C114" s="83"/>
+      <c r="D114" s="100" t="s">
+        <v>134</v>
+      </c>
+      <c r="E114" s="74"/>
+      <c r="F114" s="74"/>
+      <c r="G114" s="27"/>
+      <c r="H114" s="27"/>
+      <c r="I114" s="27"/>
+      <c r="J114" s="27"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A115" s="32">
+        <v>2</v>
+      </c>
+      <c r="B115" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="C115" s="74"/>
+      <c r="D115" s="100" t="s">
+        <v>142</v>
+      </c>
+      <c r="E115" s="74"/>
+      <c r="F115" s="74"/>
+      <c r="G115" s="27"/>
+      <c r="H115" s="27"/>
+      <c r="I115" s="27"/>
+      <c r="J115" s="27"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116" s="32">
+        <v>3</v>
+      </c>
+      <c r="B116" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="C116" s="74"/>
+      <c r="D116" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="E116" s="74"/>
+      <c r="F116" s="74"/>
+      <c r="G116" s="27"/>
+      <c r="H116" s="27"/>
+      <c r="I116" s="27"/>
+      <c r="J116" s="27"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A117" s="32"/>
+      <c r="B117" s="74"/>
+      <c r="C117" s="74"/>
+      <c r="D117" s="74"/>
+      <c r="E117" s="74"/>
+      <c r="F117" s="74"/>
+      <c r="G117" s="26"/>
+      <c r="H117" s="26"/>
+      <c r="I117" s="26"/>
+      <c r="J117" s="26"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="B118" s="72"/>
+      <c r="C118" s="26"/>
+      <c r="D118" s="27"/>
+      <c r="E118" s="27"/>
+      <c r="F118" s="27"/>
+      <c r="G118" s="27"/>
+      <c r="H118" s="27"/>
+      <c r="I118" s="27"/>
+      <c r="J118" s="27"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C119" s="34"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A120" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="B120" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="C120" s="77"/>
+      <c r="D120" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="E120" s="80"/>
+      <c r="F120" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="G120" s="86"/>
+      <c r="H120" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="I120" s="76"/>
+      <c r="J120" s="76"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A121" s="77"/>
+      <c r="B121" s="78"/>
+      <c r="C121" s="78"/>
+      <c r="D121" s="81"/>
+      <c r="E121" s="81"/>
+      <c r="F121" s="87"/>
+      <c r="G121" s="88"/>
+      <c r="H121" s="76"/>
+      <c r="I121" s="76"/>
+      <c r="J121" s="76"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A122" s="96">
+        <v>1</v>
+      </c>
+      <c r="B122" s="97" t="s">
+        <v>145</v>
+      </c>
+      <c r="C122" s="99"/>
+      <c r="D122" s="97" t="b">
+        <v>0</v>
+      </c>
+      <c r="E122" s="99"/>
+      <c r="F122" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="G122" s="83"/>
+      <c r="H122" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="I122" s="98"/>
+      <c r="J122" s="99"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123" s="96">
+        <v>2</v>
+      </c>
+      <c r="B123" s="97" t="s">
+        <v>146</v>
+      </c>
+      <c r="C123" s="99"/>
+      <c r="D123" s="97" t="b">
+        <v>1</v>
+      </c>
+      <c r="E123" s="99"/>
+      <c r="F123" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="G123" s="83"/>
+      <c r="H123" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="I123" s="98"/>
+      <c r="J123" s="99"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124" s="96">
+        <v>3</v>
+      </c>
+      <c r="B124" s="97" t="s">
+        <v>147</v>
+      </c>
+      <c r="C124" s="99"/>
+      <c r="D124" s="97" t="b">
+        <v>1</v>
+      </c>
+      <c r="E124" s="99"/>
+      <c r="F124" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="G124" s="83"/>
+      <c r="H124" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="I124" s="98"/>
+      <c r="J124" s="99"/>
     </row>
   </sheetData>
-  <mergeCells count="86">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F3:I3"/>
+  <mergeCells count="185">
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="H123:J123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="F124:G124"/>
+    <mergeCell ref="H124:J124"/>
+    <mergeCell ref="H120:J121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:C121"/>
+    <mergeCell ref="D120:E121"/>
+    <mergeCell ref="F120:G121"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="H87:J88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:C88"/>
+    <mergeCell ref="D87:E88"/>
+    <mergeCell ref="F87:G88"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="H58:J59"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:C59"/>
+    <mergeCell ref="D58:E59"/>
+    <mergeCell ref="F58:G59"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F30:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="D30:E31"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:F14"/>
@@ -4668,59 +5844,23 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="D30:E31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F30:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="H53:J54"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:C54"/>
-    <mergeCell ref="D53:E54"/>
-    <mergeCell ref="F53:G54"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
   </mergeCells>
   <pageMargins left="1.1811023622047245" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4728,18 +5868,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4960,6 +6100,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6913AF88-A569-4E93-8BD1-0040FA9C021A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8655864D-7A2A-4402-AA52-01C6DA779FC3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -4972,14 +6120,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6913AF88-A569-4E93-8BD1-0040FA9C021A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
